--- a/export/v1.0.6a/changelog.xlsx
+++ b/export/v1.0.6a/changelog.xlsx
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Changelog" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="378">
   <si>
     <t>CODE</t>
   </si>
@@ -1165,7 +1165,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1193,7 +1194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1426,1539 +1427,1540 @@
     <col min="11" max="11" width="10.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11">
+      <c r="A11" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13">
+      <c r="A13" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15">
+      <c r="A15" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17">
+      <c r="A17" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18">
+      <c r="A18" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19">
+      <c r="A19" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20">
+      <c r="A20" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21">
+      <c r="A21" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22">
+      <c r="A22" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="0" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23">
+      <c r="A23" s="0" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24">
+      <c r="A24" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25">
+      <c r="A25" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="0" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26">
+      <c r="A26" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="0" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27">
+      <c r="A27" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="0" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28">
+      <c r="A28" s="0" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29">
+      <c r="A29" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="0" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30">
+      <c r="A30" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="0" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31">
+      <c r="A31" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="0" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32">
+      <c r="A32" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="0" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33">
+      <c r="A33" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="0" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="34">
+      <c r="A34" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="35">
+      <c r="A35" s="0" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36">
+      <c r="A36" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="0" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="37">
+      <c r="A37" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="38">
+      <c r="A38" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="0" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="39">
+      <c r="A39" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="0" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="40">
+      <c r="A40" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="0" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="41">
+      <c r="A41" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="42">
+      <c r="A42" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="0" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="43">
+      <c r="A43" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="0" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="44">
+      <c r="A44" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="0" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="45">
+      <c r="A45" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="46">
+      <c r="A46" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="0" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="47">
+      <c r="A47" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="0" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="48">
+      <c r="A48" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="0" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="49">
+      <c r="A49" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="0" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50">
+      <c r="A50" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="0" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="51">
+      <c r="A51" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="0" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="52">
+      <c r="A52" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="0" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="53">
+      <c r="A53" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="0" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="54">
+      <c r="A54" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="0" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="55">
+      <c r="A55" s="0" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="56">
+      <c r="A56" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="0" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="57">
+      <c r="A57" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="0" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="58">
+      <c r="A58" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="0" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="59">
+      <c r="A59" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="0" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="60">
+      <c r="A60" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="0" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="61">
+      <c r="A61" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="0" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="62">
+      <c r="A62" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="0" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="63">
+      <c r="A63" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="0" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="64">
+      <c r="A64" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="0" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="65">
+      <c r="A65" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="0" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="66">
+      <c r="A66" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="0" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="67">
+      <c r="A67" s="0" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="68">
+      <c r="A68" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="0" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="69">
+      <c r="A69" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="0" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="70">
+      <c r="A70" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="0" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="71">
+      <c r="A71" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="0" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="72">
+      <c r="A72" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="0" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="73">
+      <c r="A73" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="0" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="74">
+      <c r="A74" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="0" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="75">
+      <c r="A75" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="0" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    <row r="76">
+      <c r="A76" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="0" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="77">
+      <c r="A77" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="0" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="78">
+      <c r="A78" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="0" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row r="79">
+      <c r="A79" s="0" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="80">
+      <c r="A80" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="0" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="81">
+      <c r="A81" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="0" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="82">
+      <c r="A82" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="0" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="83">
+      <c r="A83" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="0" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="84">
+      <c r="A84" s="0" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+    <row r="85">
+      <c r="A85" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="0" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="86">
+      <c r="A86" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="0" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="87">
+      <c r="A87" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="0" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row r="88">
+      <c r="A88" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="0" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row r="89">
+      <c r="A89" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="0" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+    <row r="90">
+      <c r="A90" s="0" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+    <row r="91">
+      <c r="A91" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="0" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    <row r="92">
+      <c r="A92" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="0" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    <row r="93">
+      <c r="A93" s="0" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+    <row r="94">
+      <c r="A94" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="0" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="95">
+      <c r="A95" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="0" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+    <row r="96">
+      <c r="A96" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="0" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+    <row r="97">
+      <c r="A97" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="0" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    <row r="98">
+      <c r="A98" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="0" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    <row r="99">
+      <c r="A99" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="0" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+    <row r="100">
+      <c r="A100" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="0" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+    <row r="101">
+      <c r="A101" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="0" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+    <row r="102">
+      <c r="A102" s="0" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+    <row r="103">
+      <c r="A103" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="0" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+    <row r="104">
+      <c r="A104" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="0" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+    <row r="105">
+      <c r="A105" s="0" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+    <row r="106">
+      <c r="A106" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="0" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+    <row r="107">
+      <c r="A107" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="0" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+    <row r="108">
+      <c r="A108" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="0" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+    <row r="109">
+      <c r="A109" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="0" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+    <row r="110">
+      <c r="A110" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="0" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+    <row r="111">
+      <c r="A111" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="0" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+    <row r="112">
+      <c r="A112" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="0" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+    <row r="113">
+      <c r="A113" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="0" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+    <row r="114">
+      <c r="A114" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="0" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+    <row r="115">
+      <c r="A115" s="0" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+    <row r="116">
+      <c r="A116" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="0" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+    <row r="117">
+      <c r="A117" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="0" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+    <row r="118">
+      <c r="A118" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="0" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+    <row r="119">
+      <c r="A119" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="0" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+    <row r="120">
+      <c r="A120" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="0" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+    <row r="121">
+      <c r="A121" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="0" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+    <row r="122">
+      <c r="A122" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="0" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+    <row r="123">
+      <c r="A123" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="0" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+    <row r="124">
+      <c r="A124" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="0" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+    <row r="125">
+      <c r="A125" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="0" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+    <row r="126">
+      <c r="A126" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="0" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+    <row r="127">
+      <c r="A127" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="0" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+    <row r="128">
+      <c r="A128" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="0" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+    <row r="129">
+      <c r="A129" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="0" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+    <row r="130">
+      <c r="A130" s="0" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+    <row r="131">
+      <c r="A131" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="0" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+    <row r="132">
+      <c r="A132" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="0" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+    <row r="133">
+      <c r="A133" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="0" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+    <row r="134">
+      <c r="A134" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="0" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+    <row r="135">
+      <c r="A135" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+    <row r="136">
+      <c r="A136" s="0" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+    <row r="137">
+      <c r="A137" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="0" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+    <row r="138">
+      <c r="A138" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="0" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+    <row r="139">
+      <c r="A139" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="0" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+    <row r="140">
+      <c r="A140" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="0" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+    <row r="141">
+      <c r="A141" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="0" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+    <row r="142">
+      <c r="A142" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="0" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+    <row r="143">
+      <c r="A143" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="0" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+    <row r="144">
+      <c r="A144" s="0" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+    <row r="145">
+      <c r="A145" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="0" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+    <row r="146">
+      <c r="A146" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="0" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+    <row r="147">
+      <c r="A147" s="0" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+    <row r="148">
+      <c r="A148" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="0" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+    <row r="149">
+      <c r="A149" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="0" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+    <row r="150">
+      <c r="A150" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="0" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+    <row r="151">
+      <c r="A151" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="0" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+    <row r="152">
+      <c r="A152" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="0" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+    <row r="153">
+      <c r="A153" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="0" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+    <row r="154">
+      <c r="A154" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="0" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+    <row r="155">
+      <c r="A155" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="0" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+    <row r="156">
+      <c r="A156" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="0" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+    <row r="157">
+      <c r="A157" s="0" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+    <row r="158">
+      <c r="A158" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="0" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+    <row r="159">
+      <c r="A159" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="0" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+    <row r="160">
+      <c r="A160" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="0" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+    <row r="161">
+      <c r="A161" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="0" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+    <row r="162">
+      <c r="A162" s="0" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+    <row r="163">
+      <c r="A163" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="0" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+    <row r="164">
+      <c r="A164" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="0" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+    <row r="165">
+      <c r="A165" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="0" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+    <row r="166">
+      <c r="A166" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="0" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+    <row r="167">
+      <c r="A167" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="0" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+    <row r="168">
+      <c r="A168" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="0" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+    <row r="169">
+      <c r="A169" s="0" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+    <row r="170">
+      <c r="A170" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="0" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+    <row r="171">
+      <c r="A171" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="0" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+    <row r="172">
+      <c r="A172" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="0" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+    <row r="173">
+      <c r="A173" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="0" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+    <row r="174">
+      <c r="A174" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="0" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+    <row r="175">
+      <c r="A175" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="0" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+    <row r="176">
+      <c r="A176" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="0" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+    <row r="177">
+      <c r="A177" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="0" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+    <row r="178">
+      <c r="A178" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="0" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+    <row r="179">
+      <c r="A179" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="0" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+    <row r="180">
+      <c r="A180" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="0" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+    <row r="181">
+      <c r="A181" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="0" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+    <row r="182">
+      <c r="A182" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="0" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+    <row r="183">
+      <c r="A183" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="0" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+    <row r="184">
+      <c r="A184" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="0" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+    <row r="185">
+      <c r="A185" s="0" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
+    <row r="186">
+      <c r="A186" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="0" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+    <row r="187">
+      <c r="A187" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="0" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
+    <row r="188">
+      <c r="A188" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="0" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+    <row r="189">
+      <c r="A189" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="0" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
+    <row r="190">
+      <c r="A190" s="0" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+    <row r="191">
+      <c r="A191" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="0" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+    <row r="192">
+      <c r="A192" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="0" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+    <row r="193">
+      <c r="A193" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="0" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+    <row r="194">
+      <c r="A194" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="0" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+    <row r="195">
+      <c r="A195" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="0" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+    <row r="196">
+      <c r="A196" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="0" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+    <row r="197">
+      <c r="A197" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="0" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+    <row r="198">
+      <c r="A198" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="0" t="s">
         <v>377</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
